--- a/Plotting map.xlsx
+++ b/Plotting map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rocket/Github/dnd-lcd-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01316D-1402-7247-8978-A088A2D0B4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705AFDC-7D4D-654D-8728-95CF6C52F810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38380" yWindow="600" windowWidth="38400" windowHeight="19460" xr2:uid="{073E4B6E-3736-8946-981A-EC460FB55DEC}"/>
+    <workbookView xWindow="38400" yWindow="600" windowWidth="38400" windowHeight="19460" xr2:uid="{073E4B6E-3736-8946-981A-EC460FB55DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -164,68 +164,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -610,9 +549,7 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
